--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B10F2BD-3134-44D5-A4A7-812D87D11443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{22EA7E04-D180-CD47-8CB6-0F11F128D506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -479,9 +481,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,17 +498,16 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="42" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -524,10 +525,10 @@
       </c>
       <c r="G1">
         <f>MAX(C:C)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>IF(C2="",0,1)</f>
         <v>1</v>
@@ -536,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <f>COUNTIF($B$2:$B$117,B2)</f>
@@ -547,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">IF(C3="",0,1)</f>
         <v>1</v>
@@ -556,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">COUNTIF($B$2:$B$117,B3)</f>
@@ -567,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -576,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
@@ -587,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -596,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -607,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -627,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -647,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -667,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -687,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -707,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -727,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -747,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -787,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -807,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -816,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -827,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -836,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -847,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -856,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -867,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -876,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -887,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -896,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -907,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -916,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -927,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -936,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -947,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -956,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -967,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -976,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -987,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -996,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -1007,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1016,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -1027,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1036,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -1047,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1056,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -1067,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1076,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -1087,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1096,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -1107,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1116,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -1127,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1136,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -1147,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1156,28 +1157,28 @@
         <v>12</v>
       </c>
       <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>32</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
       <c r="D34">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1187,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1196,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -1207,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1216,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1236,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -1247,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1256,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -1267,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1276,7 +1277,7 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -1287,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1296,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -1307,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1316,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -1327,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1336,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -1347,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1356,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -1367,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1376,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -1387,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1396,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -1407,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1416,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -1427,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1436,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -1447,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1456,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -1467,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1476,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
@@ -1487,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1496,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1516,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -1527,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1536,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -1547,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1556,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
@@ -1567,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1576,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
@@ -1587,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1596,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
@@ -1607,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1616,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
@@ -1627,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1636,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
@@ -1647,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1656,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
@@ -1667,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1676,7 +1677,7 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
@@ -1687,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1696,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
@@ -1707,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1716,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
@@ -1727,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1736,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
@@ -1747,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1756,7 +1757,7 @@
         <v>17</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
@@ -1767,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1776,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
@@ -1787,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1796,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
@@ -1807,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1816,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
@@ -1827,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" ref="A67:A117" si="3">IF(C67="",0,1)</f>
         <v>1</v>
@@ -1836,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D117" si="4">COUNTIF($B$2:$B$117,B67)</f>
@@ -1847,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1856,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
@@ -1867,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1876,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
@@ -1887,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1896,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
@@ -1907,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1916,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
@@ -1927,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1936,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
@@ -1947,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1956,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
@@ -1967,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1976,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="C74">
+        <v>66</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>67</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>68</v>
-      </c>
       <c r="D75">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2007,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2016,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
@@ -2027,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2036,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
@@ -2047,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2056,7 +2057,7 @@
         <v>18</v>
       </c>
       <c r="C78">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
@@ -2067,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2076,7 +2077,7 @@
         <v>19</v>
       </c>
       <c r="C79">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
@@ -2087,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2096,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
@@ -2107,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2116,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81">
         <f t="shared" si="4"/>
@@ -2127,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2136,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
@@ -2147,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2156,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
@@ -2167,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2176,7 +2177,7 @@
         <v>18</v>
       </c>
       <c r="C84">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
@@ -2187,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2196,7 +2197,7 @@
         <v>15</v>
       </c>
       <c r="C85">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2216,7 +2217,7 @@
         <v>13</v>
       </c>
       <c r="C86">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
@@ -2227,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2236,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="C87">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
@@ -2247,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2256,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
@@ -2267,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2276,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
@@ -2287,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2296,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
@@ -2307,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2316,7 +2317,7 @@
         <v>15</v>
       </c>
       <c r="C91">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
@@ -2327,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2336,7 +2337,7 @@
         <v>17</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2356,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
@@ -2367,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2376,48 +2377,48 @@
         <v>2</v>
       </c>
       <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>13</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95">
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
         <v>14</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>15</v>
-      </c>
       <c r="D96">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -2427,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2436,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="C97">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
@@ -2447,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2467,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2476,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2496,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
@@ -2507,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2516,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
@@ -2527,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2536,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D102">
         <f t="shared" si="4"/>
@@ -2547,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2556,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D103">
         <f t="shared" si="4"/>
@@ -2567,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2576,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D104">
         <f t="shared" si="4"/>
@@ -2587,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2596,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105">
         <f t="shared" si="4"/>
@@ -2607,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2636,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="C107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D107">
         <f t="shared" si="4"/>
@@ -2647,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2656,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
@@ -2667,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2676,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="C109">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D109">
         <f t="shared" si="4"/>
@@ -2687,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2696,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D110">
         <f t="shared" si="4"/>
@@ -2707,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2716,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="C111">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
@@ -2727,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2736,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="C112">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D112">
         <f t="shared" si="4"/>
@@ -2747,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2756,7 +2757,7 @@
         <v>13</v>
       </c>
       <c r="C113">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D113">
         <f t="shared" si="4"/>
@@ -2767,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2776,7 +2777,7 @@
         <v>18</v>
       </c>
       <c r="C114">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D114">
         <f t="shared" si="4"/>
@@ -2787,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2796,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D115">
         <f t="shared" si="4"/>
@@ -2807,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2827,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2836,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D117">
         <f t="shared" si="4"/>

--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{22EA7E04-D180-CD47-8CB6-0F11F128D506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{45DFEDEC-39F0-9540-8CF1-7E56A8B02A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$117</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
   <si>
     <t>kjslaqpwoereeeeewwwefifjdksjdfhjdksdjfkdfdlddkjdjfjfjfjjjjfjffnefhkjgefkgjefkjgkefjekihutrieruhigtefhgbjkkkknbmssdsdsfdvneurghiueor</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -495,40 +498,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.27734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.27734375" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <f>MAX(C:C)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>IF(C2="",0,1)</f>
         <v>1</v>
@@ -537,18 +541,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(B1=B3,"yes","")</f>
+        <v/>
+      </c>
+      <c r="E2">
         <f>COUNTIF($B$2:$B$117,B2)</f>
         <v>11</v>
       </c>
-      <c r="E2">
-        <f>D2-SUMIF($B$2:$B$117,B2,$A$2:$A$117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>E2-SUMIF($B$2:$B$117,B2,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">IF(C3="",0,1)</f>
         <v>1</v>
@@ -557,18 +565,22 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">COUNTIF($B$2:$B$117,B3)</f>
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">IF(B2=B4,"yes","")</f>
+        <v/>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">D3-SUMIF($B$2:$B$117,B3,$A$2:$A$117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E3:E66" si="2">COUNTIF($B$2:$B$117,B3)</f>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="3">E3-SUMIF($B$2:$B$117,B3,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -577,18 +589,22 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -597,18 +613,22 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -619,16 +639,20 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -639,16 +663,20 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -659,16 +687,20 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -677,18 +709,22 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -697,18 +733,22 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -717,18 +757,22 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -739,16 +783,20 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -757,18 +805,22 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -777,18 +829,22 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -797,18 +853,22 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -817,18 +877,22 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -837,18 +901,22 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -857,18 +925,22 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -877,18 +949,22 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -897,18 +973,22 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -917,18 +997,22 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -937,18 +1021,22 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -957,18 +1045,22 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -977,18 +1069,22 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -997,18 +1093,22 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1017,18 +1117,22 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1037,18 +1141,22 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1057,18 +1165,22 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1077,18 +1189,22 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1097,18 +1213,22 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1117,18 +1237,22 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1136,19 +1260,23 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1157,18 +1285,22 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1177,18 +1309,22 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1197,18 +1333,22 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>37</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1217,18 +1357,22 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>33</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1237,18 +1381,22 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>37</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1257,18 +1405,22 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>34</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1277,38 +1429,46 @@
         <v>14</v>
       </c>
       <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>37</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1317,18 +1477,22 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>36</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1337,18 +1501,22 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>37</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1357,18 +1525,22 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>84</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1377,18 +1549,22 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>76</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1397,18 +1573,18 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>84</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1417,18 +1593,22 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>77</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1437,18 +1617,18 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>84</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1457,18 +1637,22 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>78</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1477,18 +1661,18 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>84</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1497,18 +1681,22 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>79</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1517,18 +1705,18 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>84</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1537,18 +1725,18 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>83</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1557,18 +1745,18 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>38</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1577,18 +1765,18 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>75</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1597,18 +1785,18 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>83</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1617,18 +1805,18 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>63</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1637,18 +1825,18 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>82</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1657,18 +1845,18 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>80</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1677,18 +1865,18 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <v>73</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1697,18 +1885,18 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>74</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1717,18 +1905,18 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>72</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1737,18 +1925,18 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>71</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1757,18 +1945,18 @@
         <v>17</v>
       </c>
       <c r="C63">
-        <v>69</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1777,18 +1965,18 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>70</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1797,18 +1985,18 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>74</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1817,1038 +2005,1051 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>81</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A117" si="3">IF(C67="",0,1)</f>
+        <f t="shared" ref="A67:A117" si="4">IF(C67="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>82</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D117" si="4">COUNTIF($B$2:$B$117,B67)</f>
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E117" si="5">COUNTIF($B$2:$B$117,B67)</f>
         <v>11</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E117" si="5">D67-SUMIF($B$2:$B$117,B67,$A$2:$A$117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" ref="F67:F117" si="6">E67-SUMIF($B$2:$B$117,B67,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
       <c r="C68">
-        <v>84</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>67</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71">
-        <v>66</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72">
-        <v>64</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>65</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74">
-        <v>66</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>67</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76">
-        <v>52</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77">
-        <v>51</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="C78">
-        <v>50</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79">
-        <v>48</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
       <c r="C80">
-        <v>47</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81">
-        <v>45</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82">
-        <v>46</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83">
-        <v>47</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84">
-        <v>50</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85">
-        <v>51</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
       <c r="C86">
-        <v>52</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
       </c>
       <c r="C87">
-        <v>68</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
       </c>
       <c r="C88">
-        <v>49</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89">
-        <v>62</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
       </c>
       <c r="C90">
-        <v>61</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91">
-        <v>60</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
       <c r="C92">
-        <v>59</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93">
-        <v>15</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
       <c r="C94">
-        <v>12</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96">
-        <v>14</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97">
-        <v>15</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
       </c>
       <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" ref="D67:D117" si="7">IF(B97=B99,"yes","")</f>
+        <v/>
       </c>
       <c r="E98">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>43</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
       <c r="C100">
-        <v>44</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>42</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="7"/>
+        <v>yes</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102">
-        <v>44</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>41</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
       </c>
       <c r="C104">
-        <v>40</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
       </c>
       <c r="C105">
-        <v>44</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106">
-        <v>5</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107">
-        <v>39</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108">
-        <v>58</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
       <c r="C109">
-        <v>54</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110">
-        <v>55</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
       </c>
       <c r="C111">
-        <v>59</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112">
-        <v>60</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E112">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
       </c>
       <c r="C113">
-        <v>53</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
       <c r="C114">
-        <v>56</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115">
-        <v>62</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E115">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116">
-        <v>11</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>57</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="5"/>
+      <c r="F117">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H117" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{45DFEDEC-39F0-9540-8CF1-7E56A8B02A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C5B065A1-A619-EF4B-A3BC-140B6F95FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>kjslaqpwoereeeeewwwefifjdksjdfhjdksdjfkdfdlddkjdjfjfjfjjjjfjffnefhkjgefkgjefkjgkefjekihutrieruhigtefhgbjkkkknbmssdsdsfdvneurghiueor</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Count</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
 </sst>
 </file>
@@ -498,10 +495,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,7 +527,7 @@
       </c>
       <c r="H1">
         <f>MAX(C:C)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -556,57 +554,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">IF(C3="",0,1)</f>
+        <f>IF(C3="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="1">IF(B2=B4,"yes","")</f>
+        <f>IF(B2=B4,"yes","")</f>
         <v/>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">COUNTIF($B$2:$B$117,B3)</f>
+        <f>COUNTIF($B$2:$B$117,B3)</f>
         <v>16</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="3">E3-SUMIF($B$2:$B$117,B3,$A$2:$A$117)</f>
+        <f>E3-SUMIF($B$2:$B$117,B3,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>IF(C4="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D4:D5" si="0">IF(B3=B5,"yes","")</f>
         <v/>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B4)</f>
         <v>6</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E4-SUMIF($B$2:$B$117,B4,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>IF(C5="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -616,21 +614,21 @@
         <v>17</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B5)</f>
         <v>2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E5-SUMIF($B$2:$B$117,B5,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>IF(C6="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -640,21 +638,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B5=B7,"yes","")</f>
         <v/>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B6)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E6-SUMIF($B$2:$B$117,B6,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>IF(C7="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -664,21 +662,21 @@
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B6=B8,"yes","")</f>
         <v/>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B7)</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E7-SUMIF($B$2:$B$117,B7,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>IF(C8="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B8" t="s">
@@ -688,21 +686,21 @@
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B7=B9,"yes","")</f>
         <v/>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B8)</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E8-SUMIF($B$2:$B$117,B8,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>IF(C9="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B9" t="s">
@@ -712,69 +710,69 @@
         <v>18</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D9:D71" si="1">IF(B8=B10,"yes","")</f>
         <v/>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B9)</f>
         <v>2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f>E9-SUMIF($B$2:$B$117,B9,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>IF(C10="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B10)</f>
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f>E10-SUMIF($B$2:$B$117,B10,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>IF(C11="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B11)</f>
         <v>12</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E11-SUMIF($B$2:$B$117,B11,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>IF(C12="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B12" t="s">
@@ -788,17 +786,17 @@
         <v>yes</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B12)</f>
         <v>5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E12-SUMIF($B$2:$B$117,B12,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>IF(C13="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -812,17 +810,17 @@
         <v/>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B13)</f>
         <v>12</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E13-SUMIF($B$2:$B$117,B13,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>IF(C14="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B14" t="s">
@@ -836,65 +834,65 @@
         <v>yes</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B14)</f>
         <v>2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <f>E14-SUMIF($B$2:$B$117,B14,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>IF(C15="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B15)</f>
         <v>12</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f>E15-SUMIF($B$2:$B$117,B15,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>IF(C16="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B16)</f>
         <v>16</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E16-SUMIF($B$2:$B$117,B16,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>IF(C17="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B17" t="s">
@@ -908,41 +906,41 @@
         <v>yes</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B17)</f>
         <v>5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E17-SUMIF($B$2:$B$117,B17,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>IF(C18="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B18)</f>
         <v>16</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E18-SUMIF($B$2:$B$117,B18,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>IF(C19="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B19" t="s">
@@ -956,137 +954,137 @@
         <v/>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B19)</f>
         <v>16</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E19-SUMIF($B$2:$B$117,B19,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>IF(C20="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B20)</f>
         <v>11</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E20-SUMIF($B$2:$B$117,B20,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>IF(C21="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B21)</f>
         <v>11</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E21-SUMIF($B$2:$B$117,B21,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>IF(C22="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B22)</f>
         <v>6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E22-SUMIF($B$2:$B$117,B22,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>IF(C23="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B23)</f>
         <v>16</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E23-SUMIF($B$2:$B$117,B23,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>IF(C24="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B24)</f>
         <v>11</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E24-SUMIF($B$2:$B$117,B24,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>IF(C25="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B25" t="s">
@@ -1100,89 +1098,89 @@
         <v/>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B25)</f>
         <v>16</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E25-SUMIF($B$2:$B$117,B25,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>IF(C26="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B26)</f>
         <v>6</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E26-SUMIF($B$2:$B$117,B26,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>IF(C27="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B27)</f>
         <v>16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E27-SUMIF($B$2:$B$117,B27,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>IF(C28="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B28)</f>
         <v>11</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E28-SUMIF($B$2:$B$117,B28,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>IF(C29="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B29" t="s">
@@ -1196,17 +1194,17 @@
         <v/>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B29)</f>
         <v>11</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E29-SUMIF($B$2:$B$117,B29,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>IF(C30="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B30" t="s">
@@ -1220,17 +1218,17 @@
         <v/>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B30)</f>
         <v>6</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E30-SUMIF($B$2:$B$117,B30,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>IF(C31="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B31" t="s">
@@ -1244,41 +1242,41 @@
         <v/>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B31)</f>
         <v>11</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E31-SUMIF($B$2:$B$117,B31,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>IF(C32="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B32)</f>
         <v>16</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E32-SUMIF($B$2:$B$117,B32,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>IF(C33="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B33" t="s">
@@ -1292,41 +1290,41 @@
         <v/>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B33)</f>
         <v>16</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E33-SUMIF($B$2:$B$117,B33,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>IF(C34="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B34)</f>
         <v>11</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E34-SUMIF($B$2:$B$117,B34,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>IF(C35="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B35" t="s">
@@ -1340,161 +1338,161 @@
         <v/>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B35)</f>
         <v>11</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E35-SUMIF($B$2:$B$117,B35,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>IF(C36="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B36)</f>
         <v>16</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E36-SUMIF($B$2:$B$117,B36,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f>IF(C37="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B37)</f>
         <v>11</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E37-SUMIF($B$2:$B$117,B37,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>IF(C38="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B38)</f>
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E38-SUMIF($B$2:$B$117,B38,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>IF(C39="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B39)</f>
         <v>11</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E39-SUMIF($B$2:$B$117,B39,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f>IF(C40="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B40)</f>
         <v>11</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E40-SUMIF($B$2:$B$117,B40,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>IF(C41="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B41)</f>
         <v>16</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E41-SUMIF($B$2:$B$117,B41,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>IF(C42="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B42" t="s">
@@ -1508,17 +1506,17 @@
         <v>yes</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B42)</f>
         <v>11</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E42-SUMIF($B$2:$B$117,B42,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f>IF(C43="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B43" t="s">
@@ -1532,17 +1530,17 @@
         <v/>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B43)</f>
         <v>16</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E43-SUMIF($B$2:$B$117,B43,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f>IF(C44="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -1556,17 +1554,17 @@
         <v>yes</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B44)</f>
         <v>16</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E44-SUMIF($B$2:$B$117,B44,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f>IF(C45="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -1575,18 +1573,22 @@
       <c r="C45">
         <v>0</v>
       </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B45)</f>
         <v>16</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E45-SUMIF($B$2:$B$117,B45,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f>IF(C46="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -1600,17 +1602,17 @@
         <v>yes</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B46)</f>
         <v>16</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E46-SUMIF($B$2:$B$117,B46,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f>IF(C47="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -1619,18 +1621,22 @@
       <c r="C47">
         <v>0</v>
       </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B47)</f>
         <v>16</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E47-SUMIF($B$2:$B$117,B47,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f>IF(C48="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -1644,17 +1650,17 @@
         <v>yes</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B48)</f>
         <v>16</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E48-SUMIF($B$2:$B$117,B48,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f>IF(C49="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -1663,18 +1669,22 @@
       <c r="C49">
         <v>0</v>
       </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
+      </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B49)</f>
         <v>16</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E49-SUMIF($B$2:$B$117,B49,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f>IF(C50="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B50" t="s">
@@ -1688,37 +1698,41 @@
         <v>yes</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B50)</f>
         <v>16</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E50-SUMIF($B$2:$B$117,B50,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f>IF(C51="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>yes</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B51)</f>
         <v>16</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E51-SUMIF($B$2:$B$117,B51,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f>IF(C52="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B52" t="s">
@@ -1727,58 +1741,70 @@
       <c r="C52">
         <v>0</v>
       </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B52)</f>
         <v>16</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E52-SUMIF($B$2:$B$117,B52,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f>IF(C53="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B53)</f>
         <v>3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E53-SUMIF($B$2:$B$117,B53,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f>IF(C54="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B54)</f>
         <v>12</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E54-SUMIF($B$2:$B$117,B54,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f>IF(C55="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B55" t="s">
@@ -1787,158 +1813,190 @@
       <c r="C55">
         <v>0</v>
       </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B55)</f>
         <v>16</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E55-SUMIF($B$2:$B$117,B55,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f>IF(C56="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B56)</f>
         <v>6</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E56-SUMIF($B$2:$B$117,B56,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f>IF(C57="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B57)</f>
         <v>11</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E57-SUMIF($B$2:$B$117,B57,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f>IF(C58="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
       <c r="C58">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B58)</f>
         <v>16</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E58-SUMIF($B$2:$B$117,B58,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f>IF(C59="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B59)</f>
         <v>6</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E59-SUMIF($B$2:$B$117,B59,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f>IF(C60="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B60)</f>
         <v>12</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E60-SUMIF($B$2:$B$117,B60,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f>IF(C61="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61">
+        <v>48</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E61">
+        <f>COUNTIF($B$2:$B$117,B61)</f>
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <f>E61-SUMIF($B$2:$B$117,B61,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>IF(C62="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>49</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>50</v>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B62)</f>
         <v>11</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E62-SUMIF($B$2:$B$117,B62,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f>IF(C63="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B63" t="s">
@@ -1947,18 +2005,22 @@
       <c r="C63">
         <v>0</v>
       </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B63)</f>
         <v>6</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E63-SUMIF($B$2:$B$117,B63,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f>IF(C64="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B64" t="s">
@@ -1967,118 +2029,142 @@
       <c r="C64">
         <v>0</v>
       </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B64)</f>
         <v>16</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E64-SUMIF($B$2:$B$117,B64,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f>IF(C65="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B65)</f>
         <v>12</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E65-SUMIF($B$2:$B$117,B65,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f>IF(C66="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$117,B66)</f>
         <v>16</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E66-SUMIF($B$2:$B$117,B66,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A117" si="4">IF(C67="",0,1)</f>
+        <f>IF(C67="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E117" si="5">COUNTIF($B$2:$B$117,B67)</f>
+        <f>COUNTIF($B$2:$B$117,B67)</f>
         <v>11</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F117" si="6">E67-SUMIF($B$2:$B$117,B67,$A$2:$A$117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E67-SUMIF($B$2:$B$117,B67,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="4"/>
+        <f>IF(C68="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B68)</f>
         <v>16</v>
       </c>
       <c r="F68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E68-SUMIF($B$2:$B$117,B68,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="4"/>
+        <f>IF(C69="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B69)</f>
         <v>6</v>
       </c>
       <c r="F69">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E69-SUMIF($B$2:$B$117,B69,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="4"/>
+        <f>IF(C70="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B70" t="s">
@@ -2087,98 +2173,118 @@
       <c r="C70">
         <v>0</v>
       </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B70)</f>
         <v>11</v>
       </c>
       <c r="F70">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E70-SUMIF($B$2:$B$117,B70,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="4"/>
+        <f>IF(C71="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B71)</f>
         <v>12</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E71-SUMIF($B$2:$B$117,B71,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="4"/>
+        <f>IF(C72="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ref="D51:D97" si="2">IF(B71=B73,"yes","")</f>
+        <v/>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B72)</f>
         <v>16</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E72-SUMIF($B$2:$B$117,B72,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="4"/>
+        <f>IF(C73="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B73)</f>
         <v>16</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E73-SUMIF($B$2:$B$117,B73,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="4"/>
+        <f>IF(C74="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B74)</f>
         <v>12</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E74-SUMIF($B$2:$B$117,B74,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="4"/>
+        <f>IF(C75="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B75" t="s">
@@ -2187,158 +2293,190 @@
       <c r="C75">
         <v>0</v>
       </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B75)</f>
         <v>11</v>
       </c>
       <c r="F75">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E75-SUMIF($B$2:$B$117,B75,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="4"/>
+        <f>IF(C76="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B76)</f>
         <v>5</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E76-SUMIF($B$2:$B$117,B76,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="4"/>
+        <f>IF(C77="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B77)</f>
         <v>6</v>
       </c>
       <c r="F77">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E77-SUMIF($B$2:$B$117,B77,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="4"/>
+        <f>IF(C78="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="C78">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B78)</f>
         <v>4</v>
       </c>
       <c r="F78">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E78-SUMIF($B$2:$B$117,B78,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="4"/>
+        <f>IF(C79="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B79)</f>
         <v>2</v>
       </c>
       <c r="F79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E79-SUMIF($B$2:$B$117,B79,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="4"/>
+        <f>IF(C80="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B80)</f>
         <v>5</v>
       </c>
       <c r="F80">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E80-SUMIF($B$2:$B$117,B80,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="4"/>
+        <f>IF(C81="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B81)</f>
         <v>5</v>
       </c>
       <c r="F81">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E81-SUMIF($B$2:$B$117,B81,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="4"/>
+        <f>IF(C82="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B82)</f>
         <v>12</v>
       </c>
       <c r="F82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E82-SUMIF($B$2:$B$117,B82,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="4"/>
+        <f>IF(C83="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B83" t="s">
@@ -2347,18 +2485,22 @@
       <c r="C83">
         <v>0</v>
       </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E83">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B83)</f>
         <v>5</v>
       </c>
       <c r="F83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E83-SUMIF($B$2:$B$117,B83,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="4"/>
+        <f>IF(C84="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B84" t="s">
@@ -2367,18 +2509,22 @@
       <c r="C84">
         <v>0</v>
       </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E84">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B84)</f>
         <v>4</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E84-SUMIF($B$2:$B$117,B84,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="4"/>
+        <f>IF(C85="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B85" t="s">
@@ -2387,18 +2533,22 @@
       <c r="C85">
         <v>0</v>
       </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E85">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B85)</f>
         <v>6</v>
       </c>
       <c r="F85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E85-SUMIF($B$2:$B$117,B85,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="4"/>
+        <f>IF(C86="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B86" t="s">
@@ -2407,58 +2557,70 @@
       <c r="C86">
         <v>0</v>
       </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E86">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B86)</f>
         <v>5</v>
       </c>
       <c r="F86">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E86-SUMIF($B$2:$B$117,B86,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="4"/>
+        <f>IF(C87="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
       </c>
       <c r="C87">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B87)</f>
         <v>6</v>
       </c>
       <c r="F87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E87-SUMIF($B$2:$B$117,B87,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="4"/>
+        <f>IF(C88="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
       </c>
       <c r="C88">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B88)</f>
         <v>2</v>
       </c>
       <c r="F88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E88-SUMIF($B$2:$B$117,B88,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="4"/>
+        <f>IF(C89="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B89" t="s">
@@ -2467,18 +2629,22 @@
       <c r="C89">
         <v>54</v>
       </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B89)</f>
         <v>12</v>
       </c>
       <c r="F89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E89-SUMIF($B$2:$B$117,B89,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="4"/>
+        <f>IF(C90="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B90" t="s">
@@ -2487,18 +2653,22 @@
       <c r="C90">
         <v>55</v>
       </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B90)</f>
         <v>16</v>
       </c>
       <c r="F90">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E90-SUMIF($B$2:$B$117,B90,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="4"/>
+        <f>IF(C91="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B91" t="s">
@@ -2507,18 +2677,22 @@
       <c r="C91">
         <v>56</v>
       </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B91)</f>
         <v>6</v>
       </c>
       <c r="F91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E91-SUMIF($B$2:$B$117,B91,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="4"/>
+        <f>IF(C92="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B92" t="s">
@@ -2527,98 +2701,118 @@
       <c r="C92">
         <v>0</v>
       </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B92)</f>
         <v>6</v>
       </c>
       <c r="F92">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E92-SUMIF($B$2:$B$117,B92,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="4"/>
+        <f>IF(C93="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B93)</f>
         <v>2</v>
       </c>
       <c r="F93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E93-SUMIF($B$2:$B$117,B93,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="4"/>
+        <f>IF(C94="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
       <c r="C94">
+        <v>57</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E94">
+        <f>COUNTIF($B$2:$B$117,B94)</f>
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <f>E94-SUMIF($B$2:$B$117,B94,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f>IF(C95="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>58</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95">
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E95">
+        <f>COUNTIF($B$2:$B$117,B95)</f>
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <f>E95-SUMIF($B$2:$B$117,B95,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f>IF(C96="",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
         <v>59</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>60</v>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B96)</f>
         <v>3</v>
       </c>
       <c r="F96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E96-SUMIF($B$2:$B$117,B96,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="4"/>
+        <f>IF(C97="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B97" t="s">
@@ -2627,62 +2821,70 @@
       <c r="C97">
         <v>0</v>
       </c>
+      <c r="D97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E97">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B97)</f>
         <v>2</v>
       </c>
       <c r="F97">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E97-SUMIF($B$2:$B$117,B97,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="4"/>
+        <f>IF(C98="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D67:D117" si="7">IF(B97=B99,"yes","")</f>
+        <f>IF(B97=B99,"yes","")</f>
         <v/>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B98)</f>
         <v>1</v>
       </c>
       <c r="F98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E98-SUMIF($B$2:$B$117,B98,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="4"/>
+        <f>IF(C99="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ref="D99:D105" si="3">IF(B98=B100,"yes","")</f>
+        <v/>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B99)</f>
         <v>6</v>
       </c>
       <c r="F99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E99-SUMIF($B$2:$B$117,B99,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="4"/>
+        <f>IF(C100="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B100" t="s">
@@ -2691,18 +2893,22 @@
       <c r="C100">
         <v>20</v>
       </c>
+      <c r="D100" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
+      </c>
       <c r="E100">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B100)</f>
         <v>11</v>
       </c>
       <c r="F100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E100-SUMIF($B$2:$B$117,B100,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="4"/>
+        <f>IF(C101="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B101" t="s">
@@ -2712,285 +2918,333 @@
         <v>16</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>yes</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B101)</f>
         <v>6</v>
       </c>
       <c r="F101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E101-SUMIF($B$2:$B$117,B101,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="4"/>
+        <f>IF(C102="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
       </c>
       <c r="C102">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v>yes</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B102)</f>
         <v>11</v>
       </c>
       <c r="F102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E102-SUMIF($B$2:$B$117,B102,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="4"/>
+        <f>IF(C103="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="E103">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B103)</f>
         <v>6</v>
       </c>
       <c r="F103">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E103-SUMIF($B$2:$B$117,B103,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="4"/>
+        <f>IF(C104="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
       </c>
       <c r="C104">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B104)</f>
         <v>16</v>
       </c>
       <c r="F104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E104-SUMIF($B$2:$B$117,B104,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="4"/>
+        <f>IF(C105="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
       </c>
       <c r="C105">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="E105">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B105)</f>
         <v>11</v>
       </c>
       <c r="F105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E105-SUMIF($B$2:$B$117,B105,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="4"/>
+        <f>IF(C106="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(B105=B107,"yes","")</f>
         <v/>
       </c>
       <c r="E106">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B106)</f>
         <v>1</v>
       </c>
       <c r="F106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E106-SUMIF($B$2:$B$117,B106,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="4"/>
+        <f>IF(C107="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" ref="D107:D117" si="4">IF(B106=B108,"yes","")</f>
+        <v/>
       </c>
       <c r="E107">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B107)</f>
         <v>3</v>
       </c>
       <c r="F107">
-        <f t="shared" si="6"/>
+        <f>E107-SUMIF($B$2:$B$117,B107,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="4"/>
+        <f>IF(C108="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E108">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B108)</f>
         <v>12</v>
       </c>
       <c r="F108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E108-SUMIF($B$2:$B$117,B108,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="4"/>
+        <f>IF(C109="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
       <c r="C109">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E109">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B109)</f>
         <v>4</v>
       </c>
       <c r="F109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E109-SUMIF($B$2:$B$117,B109,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="4"/>
+        <f>IF(C110="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E110">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B110)</f>
         <v>5</v>
       </c>
       <c r="F110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E110-SUMIF($B$2:$B$117,B110,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="4"/>
+        <f>IF(C111="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E111">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B111)</f>
         <v>6</v>
       </c>
       <c r="F111">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E111-SUMIF($B$2:$B$117,B111,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="4"/>
+        <f>IF(C112="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E112">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B112)</f>
         <v>6</v>
       </c>
       <c r="F112">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E112-SUMIF($B$2:$B$117,B112,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="4"/>
+        <f>IF(C113="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E113">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B113)</f>
         <v>5</v>
       </c>
       <c r="F113">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E113-SUMIF($B$2:$B$117,B113,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="4"/>
+        <f>IF(C114="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
       <c r="C114">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E114">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B114)</f>
         <v>4</v>
       </c>
       <c r="F114">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E114-SUMIF($B$2:$B$117,B114,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="4"/>
+        <f>IF(C115="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B115" t="s">
@@ -2999,18 +3253,22 @@
       <c r="C115">
         <v>0</v>
       </c>
+      <c r="D115" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="E115">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B115)</f>
         <v>12</v>
       </c>
       <c r="F115">
-        <f t="shared" si="6"/>
+        <f>E115-SUMIF($B$2:$B$117,B115,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="4"/>
+        <f>IF(C116="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B116" t="s">
@@ -3019,37 +3277,49 @@
       <c r="C116">
         <v>0</v>
       </c>
+      <c r="D116" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="E116">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B116)</f>
         <v>2</v>
       </c>
       <c r="F116">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <f>E116-SUMIF($B$2:$B$117,B116,$A$2:$A$117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="4"/>
+        <f>IF(C117="",0,1)</f>
         <v>1</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="E117">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$2:$B$117,B117)</f>
         <v>5</v>
       </c>
       <c r="F117">
-        <f t="shared" si="6"/>
+        <f>E117-SUMIF($B$2:$B$117,B117,$A$2:$A$117)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H117" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}"/>
+  <autoFilter ref="A1:H117" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C5B065A1-A619-EF4B-A3BC-140B6F95FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CC36BF82-3A4D-7146-A38C-2F98AEBBB74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -495,11 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>IF(C3="",0,1)</f>
         <v>1</v>
@@ -602,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>IF(C5="",0,1)</f>
         <v>1</v>
@@ -626,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>IF(C6="",0,1)</f>
         <v>1</v>
@@ -650,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>IF(C7="",0,1)</f>
         <v>1</v>
@@ -674,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>IF(C8="",0,1)</f>
         <v>1</v>
@@ -698,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>IF(C9="",0,1)</f>
         <v>1</v>
@@ -770,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>IF(C12="",0,1)</f>
         <v>1</v>
@@ -794,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>IF(C13="",0,1)</f>
         <v>1</v>
@@ -818,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>IF(C14="",0,1)</f>
         <v>1</v>
@@ -842,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>IF(C15="",0,1)</f>
         <v>1</v>
@@ -890,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>IF(C17="",0,1)</f>
         <v>1</v>
@@ -914,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>IF(C18="",0,1)</f>
         <v>1</v>
@@ -938,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>IF(C19="",0,1)</f>
         <v>1</v>
@@ -962,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>IF(C20="",0,1)</f>
         <v>1</v>
@@ -971,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -986,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>IF(C21="",0,1)</f>
         <v>1</v>
@@ -995,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -1010,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>IF(C22="",0,1)</f>
         <v>1</v>
@@ -1019,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -1034,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>IF(C23="",0,1)</f>
         <v>1</v>
@@ -1043,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -1058,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>IF(C24="",0,1)</f>
         <v>1</v>
@@ -1082,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>IF(C25="",0,1)</f>
         <v>1</v>
@@ -1106,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>IF(C26="",0,1)</f>
         <v>1</v>
@@ -1115,7 +1114,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -1130,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>IF(C27="",0,1)</f>
         <v>1</v>
@@ -1139,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -1154,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>IF(C28="",0,1)</f>
         <v>1</v>
@@ -1178,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>IF(C29="",0,1)</f>
         <v>1</v>
@@ -1202,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>IF(C30="",0,1)</f>
         <v>1</v>
@@ -1226,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>IF(C31="",0,1)</f>
         <v>1</v>
@@ -1250,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>IF(C32="",0,1)</f>
         <v>1</v>
@@ -1274,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>IF(C33="",0,1)</f>
         <v>1</v>
@@ -1298,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>IF(C34="",0,1)</f>
         <v>1</v>
@@ -1307,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -1322,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>IF(C35="",0,1)</f>
         <v>1</v>
@@ -1346,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>IF(C36="",0,1)</f>
         <v>1</v>
@@ -1370,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>IF(C37="",0,1)</f>
         <v>1</v>
@@ -1394,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>IF(C38="",0,1)</f>
         <v>1</v>
@@ -1418,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>IF(C39="",0,1)</f>
         <v>1</v>
@@ -1442,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>IF(C40="",0,1)</f>
         <v>1</v>
@@ -1466,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>IF(C41="",0,1)</f>
         <v>1</v>
@@ -1475,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -1490,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>IF(C42="",0,1)</f>
         <v>1</v>
@@ -1514,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>IF(C43="",0,1)</f>
         <v>1</v>
@@ -1538,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>IF(C44="",0,1)</f>
         <v>1</v>
@@ -1562,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>IF(C45="",0,1)</f>
         <v>1</v>
@@ -1586,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>IF(C46="",0,1)</f>
         <v>1</v>
@@ -1610,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>IF(C47="",0,1)</f>
         <v>1</v>
@@ -1634,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>IF(C48="",0,1)</f>
         <v>1</v>
@@ -1658,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>IF(C49="",0,1)</f>
         <v>1</v>
@@ -1682,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>IF(C50="",0,1)</f>
         <v>1</v>
@@ -1706,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>IF(C51="",0,1)</f>
         <v>1</v>
@@ -1730,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>IF(C52="",0,1)</f>
         <v>1</v>
@@ -1754,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>IF(C53="",0,1)</f>
         <v>1</v>
@@ -1763,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -1778,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>IF(C54="",0,1)</f>
         <v>1</v>
@@ -1787,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -1802,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>IF(C55="",0,1)</f>
         <v>1</v>
@@ -1826,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>IF(C56="",0,1)</f>
         <v>1</v>
@@ -1850,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>IF(C57="",0,1)</f>
         <v>1</v>
@@ -1874,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>IF(C58="",0,1)</f>
         <v>1</v>
@@ -1898,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>IF(C59="",0,1)</f>
         <v>1</v>
@@ -1922,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>IF(C60="",0,1)</f>
         <v>1</v>
@@ -1946,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>IF(C61="",0,1)</f>
         <v>1</v>
@@ -1970,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>IF(C62="",0,1)</f>
         <v>1</v>
@@ -1994,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f>IF(C63="",0,1)</f>
         <v>1</v>
@@ -2018,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>IF(C64="",0,1)</f>
         <v>1</v>
@@ -2042,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>IF(C65="",0,1)</f>
         <v>1</v>
@@ -2066,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f>IF(C66="",0,1)</f>
         <v>1</v>
@@ -2090,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>IF(C67="",0,1)</f>
         <v>1</v>
@@ -2114,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>IF(C68="",0,1)</f>
         <v>1</v>
@@ -2123,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2138,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f>IF(C69="",0,1)</f>
         <v>1</v>
@@ -2147,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2162,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f>IF(C70="",0,1)</f>
         <v>1</v>
@@ -2186,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f>IF(C71="",0,1)</f>
         <v>1</v>
@@ -2195,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2210,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f>IF(C72="",0,1)</f>
         <v>1</v>
@@ -2219,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D51:D97" si="2">IF(B71=B73,"yes","")</f>
@@ -2234,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f>IF(C73="",0,1)</f>
         <v>1</v>
@@ -2243,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -2258,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f>IF(C74="",0,1)</f>
         <v>1</v>
@@ -2282,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f>IF(C75="",0,1)</f>
         <v>1</v>
@@ -2306,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <f>IF(C76="",0,1)</f>
         <v>1</v>
@@ -2330,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <f>IF(C77="",0,1)</f>
         <v>1</v>
@@ -2339,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
@@ -2354,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <f>IF(C78="",0,1)</f>
         <v>1</v>
@@ -2363,7 +2362,7 @@
         <v>18</v>
       </c>
       <c r="C78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
@@ -2378,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <f>IF(C79="",0,1)</f>
         <v>1</v>
@@ -2387,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="C79">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
@@ -2402,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>IF(C80="",0,1)</f>
         <v>1</v>
@@ -2411,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
@@ -2426,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <f>IF(C81="",0,1)</f>
         <v>1</v>
@@ -2435,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
@@ -2450,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <f>IF(C82="",0,1)</f>
         <v>1</v>
@@ -2459,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -2474,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>IF(C83="",0,1)</f>
         <v>1</v>
@@ -2498,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <f>IF(C84="",0,1)</f>
         <v>1</v>
@@ -2522,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <f>IF(C85="",0,1)</f>
         <v>1</v>
@@ -2546,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <f>IF(C86="",0,1)</f>
         <v>1</v>
@@ -2570,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <f>IF(C87="",0,1)</f>
         <v>1</v>
@@ -2594,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <f>IF(C88="",0,1)</f>
         <v>1</v>
@@ -2603,7 +2602,7 @@
         <v>19</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -2618,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <f>IF(C89="",0,1)</f>
         <v>1</v>
@@ -2642,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <f>IF(C90="",0,1)</f>
         <v>1</v>
@@ -2666,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <f>IF(C91="",0,1)</f>
         <v>1</v>
@@ -2690,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <f>IF(C92="",0,1)</f>
         <v>1</v>
@@ -2714,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <f>IF(C93="",0,1)</f>
         <v>1</v>
@@ -2738,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <f>IF(C94="",0,1)</f>
         <v>1</v>
@@ -2762,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <f>IF(C95="",0,1)</f>
         <v>1</v>
@@ -2786,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <f>IF(C96="",0,1)</f>
         <v>1</v>
@@ -2810,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <f>IF(C97="",0,1)</f>
         <v>1</v>
@@ -2834,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <f>IF(C98="",0,1)</f>
         <v>1</v>
@@ -2858,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <f>IF(C99="",0,1)</f>
         <v>1</v>
@@ -2882,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <f>IF(C100="",0,1)</f>
         <v>1</v>
@@ -2906,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <f>IF(C101="",0,1)</f>
         <v>1</v>
@@ -2930,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <f>IF(C102="",0,1)</f>
         <v>1</v>
@@ -2954,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <f>IF(C103="",0,1)</f>
         <v>1</v>
@@ -2978,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <f>IF(C104="",0,1)</f>
         <v>1</v>
@@ -3002,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <f>IF(C105="",0,1)</f>
         <v>1</v>
@@ -3026,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <f>IF(C106="",0,1)</f>
         <v>1</v>
@@ -3050,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>IF(C107="",0,1)</f>
         <v>1</v>
@@ -3098,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <f>IF(C109="",0,1)</f>
         <v>1</v>
@@ -3122,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <f>IF(C110="",0,1)</f>
         <v>1</v>
@@ -3146,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <f>IF(C111="",0,1)</f>
         <v>1</v>
@@ -3170,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <f>IF(C112="",0,1)</f>
         <v>1</v>
@@ -3194,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <f>IF(C113="",0,1)</f>
         <v>1</v>
@@ -3218,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <f>IF(C114="",0,1)</f>
         <v>1</v>
@@ -3242,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <f>IF(C115="",0,1)</f>
         <v>1</v>
@@ -3290,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <f>IF(C117="",0,1)</f>
         <v>1</v>
@@ -3315,11 +3314,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H117" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H117" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CC36BF82-3A4D-7146-A38C-2F98AEBBB74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{32076A5F-D78B-3D44-B21D-5838D5F92925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B97A9-9CA4-495B-9B27-52DFFFFF99D0}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="H1">
         <f>MAX(C:C)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -1066,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>

--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{32076A5F-D78B-3D44-B21D-5838D5F92925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{975DD3C5-3936-B341-9970-DA3193045DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>

--- a/Day6/Sequence.xlsx
+++ b/Day6/Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://absacorp-my.sharepoint.com/personal/mohammedirfaan_hoosain_absa_africa/Documents/My Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{975DD3C5-3936-B341-9970-DA3193045DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4BACF75A-5B9E-1046-990B-4E909A99CA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2171A7C3-D7BD-4F1A-96F8-2729A0222444}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="H1">
         <f>MAX(C:C)</f>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="str">
         <f>IF(B1=B3,"yes","")</f>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D3" t="str">
         <f>IF(B2=B4,"yes","")</f>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D5" si="0">IF(B3=B5,"yes","")</f>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9:D71" si="1">IF(B8=B10,"yes","")</f>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -970,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -1066,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -1114,7 +1114,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -1330,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -1762,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -1834,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
@@ -1906,7 +1906,7 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
@@ -1954,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
@@ -2002,7 +2002,7 @@
         <v>17</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
@@ -2050,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
@@ -2074,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2146,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2194,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2218,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ref="D51:D97" si="2">IF(B71=B73,"yes","")</f>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
@@ -2314,7 +2314,7 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
@@ -2338,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
@@ -2386,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="C79">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
@@ -2434,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -2578,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="C87">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
@@ -2602,7 +2602,7 @@
         <v>19</v>
       </c>
       <c r="C88">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -2626,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
@@ -2650,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
@@ -2674,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="C91">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
@@ -2722,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="C93">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
@@ -2746,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="C96">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
@@ -2818,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
@@ -2866,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ref="D99:D105" si="3">IF(B98=B100,"yes","")</f>
@@ -2890,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
@@ -2914,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
@@ -2938,7 +2938,7 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
@@ -2986,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
@@ -3010,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="C105">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
@@ -3058,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="C107">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" ref="D107:D117" si="4">IF(B106=B108,"yes","")</f>
@@ -3106,7 +3106,7 @@
         <v>18</v>
       </c>
       <c r="C109">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="4"/>
@@ -3130,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="4"/>
@@ -3154,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="C111">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="4"/>
@@ -3178,7 +3178,7 @@
         <v>15</v>
       </c>
       <c r="C112">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="4"/>
@@ -3202,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="C113">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="4"/>
@@ -3298,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
